--- a/Tos.FoodProcs.Web/templates/genshizaiZaikoNyuryoku_sokoAri_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiZaikoNyuryoku_sokoAri_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1F7D7-116F-4AD5-84A8-0A30EA377A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14196" windowHeight="13308"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,13 +33,6 @@
     <t>Nhập tồn kho nguyên vật liệu</t>
   </si>
   <si>
-    <t>Nhóm sản phẩm　　　　　　 ：</t>
-  </si>
-  <si>
-    <t>Chỉ hiển thị khi có tồn kho 
-tính toán hoặc tồn kho thực tế ：</t>
-  </si>
-  <si>
     <t>Nhóm sản phẩm</t>
   </si>
   <si>
@@ -86,41 +80,162 @@
     <t>Số tiền</t>
   </si>
   <si>
-    <t>Ngày tồn kho　 　　　　    　 ：</t>
-  </si>
-  <si>
-    <t>Inventory type　 　　    　       ：</t>
-  </si>
-  <si>
-    <t>Người xuất　　　　　             ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất  　　　　　　   ：</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm　　　     　      ：</t>
-  </si>
-  <si>
-    <t>Kho　　　　　　　　    　      ：</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm　　       　        ：</t>
-  </si>
-  <si>
-    <t>Phần sử dụng　　　　　　　 ：</t>
-  </si>
-  <si>
-    <t>Phần không sử dụng　　　　 ：</t>
-  </si>
-  <si>
-    <t>Warehouse　　　　　　         ：</t>
+    <r>
+      <t>Ngày tồn kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Loại sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Nhóm sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Warehouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tên sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phần sử dụng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Phần không sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Inventory type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Người xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chỉ hiển thị khi có tồn kho 
+tính toán hoặc tồn kho thực tế           :</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="@* \:"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -156,6 +271,12 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -256,28 +377,28 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -289,7 +410,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -299,6 +420,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -319,9 +444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,9 +484,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -612,152 +737,153 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="38.77734375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="38.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="30.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="34.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="38.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="38.75" style="8" customWidth="1"/>
     <col min="13" max="13" width="16" style="8" customWidth="1"/>
-    <col min="14" max="15" width="15.21875" style="8" customWidth="1"/>
+    <col min="14" max="15" width="15.25" style="8" customWidth="1"/>
     <col min="16" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="O16" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="P16" s="6"/>
     </row>
